--- a/data/profiles/xlsx/bluff/profile 30-2 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 30-2 graph.xlsx
@@ -20262,11 +20262,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62769835"/>
-        <c:axId val="79306822"/>
+        <c:axId val="92878378"/>
+        <c:axId val="36063142"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62769835"/>
+        <c:axId val="92878378"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20301,12 +20301,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79306822"/>
+        <c:crossAx val="36063142"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79306822"/>
+        <c:axId val="36063142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20350,7 +20350,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62769835"/>
+        <c:crossAx val="92878378"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
